--- a/test/availAsset.xlsx
+++ b/test/availAsset.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="headers" sheetId="1" r:id="rId1"/>
+    <sheet name="USD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="73">
   <si>
     <t>callId</t>
   </si>
@@ -64,12 +64,6 @@
     <t>interestRate</t>
   </si>
   <si>
-    <t>FXRate</t>
-  </si>
-  <si>
-    <t>assetCustacId</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -79,32 +73,183 @@
     <t>Cust1</t>
   </si>
   <si>
-    <t>SGD-Cust1</t>
-  </si>
-  <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>JPY-Cust1</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>USD-Cust1</t>
-  </si>
-  <si>
-    <t>mcusd11</t>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>callType</t>
+  </si>
+  <si>
+    <t>Variation</t>
+  </si>
+  <si>
+    <t>GB0030883606</t>
+  </si>
+  <si>
+    <t>GB0030883713</t>
+  </si>
+  <si>
+    <t>GB0030883150</t>
+  </si>
+  <si>
+    <t>GB0030883267</t>
+  </si>
+  <si>
+    <t>CA135087F585</t>
+  </si>
+  <si>
+    <t>FR0000570905</t>
+  </si>
+  <si>
+    <t>DE0001108603</t>
+  </si>
+  <si>
+    <t>DE0001141661</t>
+  </si>
+  <si>
+    <t>DE0001135382</t>
+  </si>
+  <si>
+    <t>DE0001135424</t>
+  </si>
+  <si>
+    <t>DE0001108611</t>
+  </si>
+  <si>
+    <t>SG7J28931946</t>
+  </si>
+  <si>
+    <t>SG7928920854</t>
+  </si>
+  <si>
+    <t>FR0000570897</t>
+  </si>
+  <si>
+    <t>DE0001104636</t>
+  </si>
+  <si>
+    <t>DE0001104644</t>
+  </si>
+  <si>
+    <t>DE0001141737</t>
+  </si>
+  <si>
+    <t>SG31A1000000</t>
+  </si>
+  <si>
+    <t>SG7Y76964295</t>
+  </si>
+  <si>
+    <t>SG7S29941612</t>
+  </si>
+  <si>
+    <t>DE0001135416</t>
+  </si>
+  <si>
+    <t>JP1051171E30</t>
+  </si>
+  <si>
+    <t>JP1051231F37</t>
+  </si>
+  <si>
+    <t>JP1051161DC4</t>
+  </si>
+  <si>
+    <t>JP1023621G33</t>
+  </si>
+  <si>
+    <t>JP1103121AC2</t>
+  </si>
+  <si>
+    <t>JP1051271G37</t>
+  </si>
+  <si>
+    <t>FR0000578601</t>
+  </si>
+  <si>
+    <t>DE0001135069</t>
+  </si>
+  <si>
+    <t>CA13506ZEU45</t>
+  </si>
+  <si>
+    <t>FR0000578593</t>
+  </si>
+  <si>
+    <t>CA13506ZES98</t>
+  </si>
+  <si>
+    <t>CA135087WL43</t>
+  </si>
+  <si>
+    <t>US912796LC15</t>
+  </si>
+  <si>
+    <t>US912803DQ36</t>
+  </si>
+  <si>
+    <t>US912803AY96</t>
+  </si>
+  <si>
+    <t>GB00B1HYR000</t>
+  </si>
+  <si>
+    <t>DE0001108777</t>
+  </si>
+  <si>
+    <t>FR0010482547</t>
+  </si>
+  <si>
+    <t>DE0001108769</t>
+  </si>
+  <si>
+    <t>FR0000571069</t>
+  </si>
+  <si>
+    <t>DE0001108751</t>
+  </si>
+  <si>
+    <t>SG3260987684</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>sth</t>
+  </si>
+  <si>
+    <t>Cust2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,13 +272,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="XLConnect.Numeric" xfId="2"/>
+    <cellStyle name="XLConnect.String" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,15 +591,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,18 +654,15 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2">
         <v>100000</v>
@@ -520,45 +677,45 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>2E-3</v>
+      </c>
+      <c r="K2">
+        <v>2E-3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.08</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>2E-3</v>
-      </c>
-      <c r="K2">
-        <v>2E-3</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.08</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3">
         <v>100000</v>
@@ -573,45 +730,45 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>2E-3</v>
+      </c>
+      <c r="K3">
+        <v>2E-3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.08</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>2E-3</v>
-      </c>
-      <c r="K3">
-        <v>2E-3</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.08</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -626,37 +783,2899 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>2E-3</v>
+      </c>
+      <c r="K4">
+        <v>2E-3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>2E-3</v>
+      </c>
+      <c r="K5">
+        <v>2E-3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.08</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>2E-3</v>
+      </c>
+      <c r="K6">
+        <v>2E-3</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.08</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>2E-3</v>
+      </c>
+      <c r="K7">
+        <v>2E-3</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.08</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C8">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.01</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="J4">
-        <v>2E-3</v>
-      </c>
-      <c r="K4">
-        <v>2E-3</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>2E-3</v>
+      </c>
+      <c r="K8">
+        <v>2E-3</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.08</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>2E-3</v>
+      </c>
+      <c r="K9">
+        <v>2E-3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.08</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>2E-3</v>
+      </c>
+      <c r="K10">
+        <v>2E-3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.08</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>100000</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>2E-3</v>
+      </c>
+      <c r="K11">
+        <v>2E-3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>100000</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>2E-3</v>
+      </c>
+      <c r="K12">
+        <v>2E-3</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.08</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>100000</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>2E-3</v>
+      </c>
+      <c r="K13">
+        <v>2E-3</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.08</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>100000</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>2E-3</v>
+      </c>
+      <c r="K14">
+        <v>2E-3</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.08</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>100000</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.01</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>2E-3</v>
+      </c>
+      <c r="K15">
+        <v>2E-3</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.08</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N16">
+        <v>0.08</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N17">
+        <v>0.08</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N18">
+        <v>0.08</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N19">
+        <v>0.08</v>
+      </c>
+      <c r="O19" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N20">
+        <v>0.08</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N21">
+        <v>0.08</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N22">
+        <v>0.08</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N23">
+        <v>0.08</v>
+      </c>
+      <c r="O23" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N24">
+        <v>0.08</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N25">
+        <v>0.08</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N26">
+        <v>0.08</v>
+      </c>
+      <c r="O26" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N27">
+        <v>0.08</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N28">
+        <v>0.08</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N29">
+        <v>0.08</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N30">
+        <v>0.08</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N31">
+        <v>0.08</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N32">
+        <v>0.08</v>
+      </c>
+      <c r="O32" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N33">
+        <v>0.08</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N34">
+        <v>0.08</v>
+      </c>
+      <c r="O34" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2">
+        <v>100</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N35">
+        <v>0.08</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="N36">
+        <v>0.08</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2">
+        <v>200</v>
+      </c>
+      <c r="D37" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K37" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N37">
+        <v>0.08</v>
+      </c>
+      <c r="O37" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2">
+        <v>200</v>
+      </c>
+      <c r="D38" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K38" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N38">
+        <v>0.08</v>
+      </c>
+      <c r="O38" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2">
+        <v>200</v>
+      </c>
+      <c r="D39" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N39">
+        <v>0.08</v>
+      </c>
+      <c r="O39" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="2">
+        <v>200</v>
+      </c>
+      <c r="D40" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N40">
+        <v>0.08</v>
+      </c>
+      <c r="O40" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="2">
+        <v>200</v>
+      </c>
+      <c r="D41" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N41">
+        <v>0.08</v>
+      </c>
+      <c r="O41" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="2">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N42">
+        <v>0.08</v>
+      </c>
+      <c r="O42" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N43">
+        <v>0.08</v>
+      </c>
+      <c r="O43" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N44">
+        <v>0.08</v>
+      </c>
+      <c r="O44" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="2">
+        <v>100</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N45">
+        <v>0.08</v>
+      </c>
+      <c r="O45" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N46">
+        <v>0.08</v>
+      </c>
+      <c r="O46" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N47">
+        <v>0.08</v>
+      </c>
+      <c r="O47" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="2">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="N48">
+        <v>0.08</v>
+      </c>
+      <c r="O48" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>100</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K49" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>100</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K50" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="2">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>100</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K51" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K52" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N52">
+        <v>0.08</v>
+      </c>
+      <c r="O52" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K53" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N53">
+        <v>0.08</v>
+      </c>
+      <c r="O53" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K54" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N54">
+        <v>0.08</v>
+      </c>
+      <c r="O54" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N55">
+        <v>0.08</v>
+      </c>
+      <c r="O55" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="2">
+        <v>400000</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K56" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N56">
+        <v>0.08</v>
+      </c>
+      <c r="O56" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K57" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N57">
+        <v>0.08</v>
+      </c>
+      <c r="O57" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="2">
+        <v>100</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K58" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N58">
+        <v>0.08</v>
+      </c>
+      <c r="O58" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/test/availAsset.xlsx
+++ b/test/availAsset.xlsx
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K2">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0.08</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K3">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0.08</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K4">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K5">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0.08</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>16</v>
       </c>
       <c r="J6">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K6">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0.08</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -951,10 +951,10 @@
         <v>16</v>
       </c>
       <c r="J7">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K7">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0.08</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>16</v>
       </c>
       <c r="J8">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K8">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0.08</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>16</v>
       </c>
       <c r="J9">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K9">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0.08</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="J10">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K10">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0.08</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>16</v>
       </c>
       <c r="J11">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K11">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>16</v>
       </c>
       <c r="J12">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K12">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0.08</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>16</v>
       </c>
       <c r="J13">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K13">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0.08</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>16</v>
       </c>
       <c r="J14">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K14">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0.08</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>16</v>
       </c>
       <c r="J15">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K15">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0.08</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>16</v>
       </c>
       <c r="J16" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K16" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -1442,8 +1442,8 @@
       <c r="N16">
         <v>0.08</v>
       </c>
-      <c r="O16" s="2">
-        <v>2E-3</v>
+      <c r="O16">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         <v>16</v>
       </c>
       <c r="J17" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K17" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1495,8 +1495,8 @@
       <c r="N17">
         <v>0.08</v>
       </c>
-      <c r="O17" s="2">
-        <v>2E-3</v>
+      <c r="O17">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>16</v>
       </c>
       <c r="J18" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K18" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -1548,8 +1548,8 @@
       <c r="N18">
         <v>0.08</v>
       </c>
-      <c r="O18" s="2">
-        <v>2E-3</v>
+      <c r="O18">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>16</v>
       </c>
       <c r="J19" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K19" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1601,8 +1601,8 @@
       <c r="N19">
         <v>0.08</v>
       </c>
-      <c r="O19" s="2">
-        <v>2E-3</v>
+      <c r="O19">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>16</v>
       </c>
       <c r="J20" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K20" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -1654,8 +1654,8 @@
       <c r="N20">
         <v>0.08</v>
       </c>
-      <c r="O20" s="2">
-        <v>2E-3</v>
+      <c r="O20">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P20" s="2">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>16</v>
       </c>
       <c r="J21" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K21" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -1707,8 +1707,8 @@
       <c r="N21">
         <v>0.08</v>
       </c>
-      <c r="O21" s="2">
-        <v>2E-3</v>
+      <c r="O21">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P21" s="2">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>16</v>
       </c>
       <c r="J22" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K22" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -1760,8 +1760,8 @@
       <c r="N22">
         <v>0.08</v>
       </c>
-      <c r="O22" s="2">
-        <v>2E-3</v>
+      <c r="O22">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -1799,10 +1799,10 @@
         <v>16</v>
       </c>
       <c r="J23" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K23" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -1813,8 +1813,8 @@
       <c r="N23">
         <v>0.08</v>
       </c>
-      <c r="O23" s="2">
-        <v>2E-3</v>
+      <c r="O23">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P23" s="2">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>16</v>
       </c>
       <c r="J24" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K24" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -1866,8 +1866,8 @@
       <c r="N24">
         <v>0.08</v>
       </c>
-      <c r="O24" s="2">
-        <v>2E-3</v>
+      <c r="O24">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P24" s="2">
         <v>0</v>
@@ -1905,10 +1905,10 @@
         <v>16</v>
       </c>
       <c r="J25" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K25" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -1919,8 +1919,8 @@
       <c r="N25">
         <v>0.08</v>
       </c>
-      <c r="O25" s="2">
-        <v>2E-3</v>
+      <c r="O25">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>16</v>
       </c>
       <c r="J26" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K26" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -1972,8 +1972,8 @@
       <c r="N26">
         <v>0.08</v>
       </c>
-      <c r="O26" s="2">
-        <v>2E-3</v>
+      <c r="O26">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>16</v>
       </c>
       <c r="J27" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K27" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -2025,8 +2025,8 @@
       <c r="N27">
         <v>0.08</v>
       </c>
-      <c r="O27" s="2">
-        <v>2E-3</v>
+      <c r="O27">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>16</v>
       </c>
       <c r="J28" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K28" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -2078,8 +2078,8 @@
       <c r="N28">
         <v>0.08</v>
       </c>
-      <c r="O28" s="2">
-        <v>2E-3</v>
+      <c r="O28">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
@@ -2117,10 +2117,10 @@
         <v>16</v>
       </c>
       <c r="J29" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K29" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -2131,8 +2131,8 @@
       <c r="N29">
         <v>0.08</v>
       </c>
-      <c r="O29" s="2">
-        <v>2E-3</v>
+      <c r="O29">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>16</v>
       </c>
       <c r="J30" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K30" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -2184,8 +2184,8 @@
       <c r="N30">
         <v>0.08</v>
       </c>
-      <c r="O30" s="2">
-        <v>2E-3</v>
+      <c r="O30">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>16</v>
       </c>
       <c r="J31" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K31" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -2237,8 +2237,8 @@
       <c r="N31">
         <v>0.08</v>
       </c>
-      <c r="O31" s="2">
-        <v>2E-3</v>
+      <c r="O31">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>16</v>
       </c>
       <c r="J32" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K32" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -2290,8 +2290,8 @@
       <c r="N32">
         <v>0.08</v>
       </c>
-      <c r="O32" s="2">
-        <v>2E-3</v>
+      <c r="O32">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>16</v>
       </c>
       <c r="J33" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K33" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -2343,8 +2343,8 @@
       <c r="N33">
         <v>0.08</v>
       </c>
-      <c r="O33" s="2">
-        <v>2E-3</v>
+      <c r="O33">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -2382,10 +2382,10 @@
         <v>16</v>
       </c>
       <c r="J34" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K34" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -2396,8 +2396,8 @@
       <c r="N34">
         <v>0.08</v>
       </c>
-      <c r="O34" s="2">
-        <v>2E-3</v>
+      <c r="O34">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P34" s="2">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>16</v>
       </c>
       <c r="J35" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K35" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -2449,8 +2449,8 @@
       <c r="N35">
         <v>0.08</v>
       </c>
-      <c r="O35" s="2">
-        <v>2E-3</v>
+      <c r="O35">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P35" s="2">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>16</v>
       </c>
       <c r="J36" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K36" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -2502,8 +2502,8 @@
       <c r="N36">
         <v>0.08</v>
       </c>
-      <c r="O36" s="2">
-        <v>2E-3</v>
+      <c r="O36">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P36" s="2">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>16</v>
       </c>
       <c r="J37" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K37" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -2555,8 +2555,8 @@
       <c r="N37">
         <v>0.08</v>
       </c>
-      <c r="O37" s="2">
-        <v>5.0000000000000001E-3</v>
+      <c r="O37">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P37" s="2">
         <v>0</v>
@@ -2594,10 +2594,10 @@
         <v>16</v>
       </c>
       <c r="J38" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K38" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -2608,8 +2608,8 @@
       <c r="N38">
         <v>0.08</v>
       </c>
-      <c r="O38" s="2">
-        <v>5.0000000000000001E-3</v>
+      <c r="O38">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P38" s="2">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         <v>16</v>
       </c>
       <c r="J39" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K39" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -2661,8 +2661,8 @@
       <c r="N39">
         <v>0.08</v>
       </c>
-      <c r="O39" s="2">
-        <v>5.0000000000000001E-3</v>
+      <c r="O39">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
@@ -2700,10 +2700,10 @@
         <v>16</v>
       </c>
       <c r="J40" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K40" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -2714,8 +2714,8 @@
       <c r="N40">
         <v>0.08</v>
       </c>
-      <c r="O40" s="2">
-        <v>5.0000000000000001E-3</v>
+      <c r="O40">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P40" s="2">
         <v>0</v>
@@ -2753,10 +2753,10 @@
         <v>16</v>
       </c>
       <c r="J41" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K41" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -2767,8 +2767,8 @@
       <c r="N41">
         <v>0.08</v>
       </c>
-      <c r="O41" s="2">
-        <v>5.0000000000000001E-3</v>
+      <c r="O41">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P41" s="2">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>16</v>
       </c>
       <c r="J42" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K42" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -2820,8 +2820,8 @@
       <c r="N42">
         <v>0.08</v>
       </c>
-      <c r="O42" s="2">
-        <v>5.0000000000000001E-3</v>
+      <c r="O42">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P42" s="2">
         <v>0</v>
@@ -2859,10 +2859,10 @@
         <v>16</v>
       </c>
       <c r="J43" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K43" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -2873,8 +2873,8 @@
       <c r="N43">
         <v>0.08</v>
       </c>
-      <c r="O43" s="2">
-        <v>2E-3</v>
+      <c r="O43">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P43" s="2">
         <v>0</v>
@@ -2912,10 +2912,10 @@
         <v>16</v>
       </c>
       <c r="J44" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K44" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
@@ -2926,8 +2926,8 @@
       <c r="N44">
         <v>0.08</v>
       </c>
-      <c r="O44" s="2">
-        <v>2E-3</v>
+      <c r="O44">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P44" s="2">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>16</v>
       </c>
       <c r="J45" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K45" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
@@ -2979,8 +2979,8 @@
       <c r="N45">
         <v>0.08</v>
       </c>
-      <c r="O45" s="2">
-        <v>2E-3</v>
+      <c r="O45">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P45" s="2">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>16</v>
       </c>
       <c r="J46" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K46" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L46" s="2">
         <v>0</v>
@@ -3032,8 +3032,8 @@
       <c r="N46">
         <v>0.08</v>
       </c>
-      <c r="O46" s="2">
-        <v>2E-3</v>
+      <c r="O46">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>16</v>
       </c>
       <c r="J47" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K47" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
@@ -3085,8 +3085,8 @@
       <c r="N47">
         <v>0.08</v>
       </c>
-      <c r="O47" s="2">
-        <v>2E-3</v>
+      <c r="O47">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
@@ -3124,10 +3124,10 @@
         <v>16</v>
       </c>
       <c r="J48" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K48" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L48" s="2">
         <v>0</v>
@@ -3138,8 +3138,8 @@
       <c r="N48">
         <v>0.08</v>
       </c>
-      <c r="O48" s="2">
-        <v>2E-3</v>
+      <c r="O48">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         <v>16</v>
       </c>
       <c r="J49" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K49" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
@@ -3191,8 +3191,8 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49" s="2">
-        <v>2E-3</v>
+      <c r="O49">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P49" s="2">
         <v>0</v>
@@ -3230,10 +3230,10 @@
         <v>16</v>
       </c>
       <c r="J50" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K50" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
@@ -3244,8 +3244,8 @@
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50" s="2">
-        <v>2E-3</v>
+      <c r="O50">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P50" s="2">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>16</v>
       </c>
       <c r="J51" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K51" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
@@ -3297,8 +3297,8 @@
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51" s="2">
-        <v>2E-3</v>
+      <c r="O51">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P51" s="2">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>16</v>
       </c>
       <c r="J52" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K52" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L52" s="2">
         <v>0</v>
@@ -3350,8 +3350,8 @@
       <c r="N52">
         <v>0.08</v>
       </c>
-      <c r="O52" s="2">
-        <v>2E-3</v>
+      <c r="O52">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P52" s="2">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>16</v>
       </c>
       <c r="J53" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K53" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
@@ -3403,8 +3403,8 @@
       <c r="N53">
         <v>0.08</v>
       </c>
-      <c r="O53" s="2">
-        <v>2E-3</v>
+      <c r="O53">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>16</v>
       </c>
       <c r="J54" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K54" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
@@ -3456,8 +3456,8 @@
       <c r="N54">
         <v>0.08</v>
       </c>
-      <c r="O54" s="2">
-        <v>2E-3</v>
+      <c r="O54">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P54" s="2">
         <v>0</v>
@@ -3495,10 +3495,10 @@
         <v>16</v>
       </c>
       <c r="J55" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K55" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L55" s="2">
         <v>0</v>
@@ -3509,8 +3509,8 @@
       <c r="N55">
         <v>0.08</v>
       </c>
-      <c r="O55" s="2">
-        <v>2E-3</v>
+      <c r="O55">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P55" s="2">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>16</v>
       </c>
       <c r="J56" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K56" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
@@ -3562,8 +3562,8 @@
       <c r="N56">
         <v>0.08</v>
       </c>
-      <c r="O56" s="2">
-        <v>2E-3</v>
+      <c r="O56">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P56" s="2">
         <v>0</v>
@@ -3601,10 +3601,10 @@
         <v>16</v>
       </c>
       <c r="J57" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K57" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L57" s="2">
         <v>0</v>
@@ -3615,8 +3615,8 @@
       <c r="N57">
         <v>0.08</v>
       </c>
-      <c r="O57" s="2">
-        <v>2E-3</v>
+      <c r="O57">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P57" s="2">
         <v>0</v>
@@ -3654,10 +3654,10 @@
         <v>16</v>
       </c>
       <c r="J58" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K58" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L58" s="2">
         <v>0</v>
@@ -3668,8 +3668,8 @@
       <c r="N58">
         <v>0.08</v>
       </c>
-      <c r="O58" s="2">
-        <v>2E-3</v>
+      <c r="O58">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P58" s="2">
         <v>0</v>

--- a/test/availAsset.xlsx
+++ b/test/availAsset.xlsx
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16:O58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K2">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0.08</v>
       </c>
       <c r="O2">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K3">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0.08</v>
       </c>
       <c r="O3">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K4">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K5">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0.08</v>
       </c>
       <c r="O5">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>16</v>
       </c>
       <c r="J6">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K6">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0.08</v>
       </c>
       <c r="O6">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -951,10 +951,10 @@
         <v>16</v>
       </c>
       <c r="J7">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K7">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0.08</v>
       </c>
       <c r="O7">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>16</v>
       </c>
       <c r="J8">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K8">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0.08</v>
       </c>
       <c r="O8">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>16</v>
       </c>
       <c r="J9">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K9">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0.08</v>
       </c>
       <c r="O9">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="J10">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K10">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0.08</v>
       </c>
       <c r="O10">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>16</v>
       </c>
       <c r="J11">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K11">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>16</v>
       </c>
       <c r="J12">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K12">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0.08</v>
       </c>
       <c r="O12">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>16</v>
       </c>
       <c r="J13">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K13">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0.08</v>
       </c>
       <c r="O13">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>16</v>
       </c>
       <c r="J14">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K14">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0.08</v>
       </c>
       <c r="O14">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>16</v>
       </c>
       <c r="J15">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K15">
-        <v>5.0000000000000002E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0.08</v>
       </c>
       <c r="O15">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>16</v>
       </c>
       <c r="J16" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K16" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -1442,8 +1442,8 @@
       <c r="N16">
         <v>0.08</v>
       </c>
-      <c r="O16">
-        <v>5.0000000000000002E-5</v>
+      <c r="O16" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         <v>16</v>
       </c>
       <c r="J17" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K17" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1495,8 +1495,8 @@
       <c r="N17">
         <v>0.08</v>
       </c>
-      <c r="O17">
-        <v>5.0000000000000002E-5</v>
+      <c r="O17" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>16</v>
       </c>
       <c r="J18" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K18" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -1548,8 +1548,8 @@
       <c r="N18">
         <v>0.08</v>
       </c>
-      <c r="O18">
-        <v>5.0000000000000002E-5</v>
+      <c r="O18" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>16</v>
       </c>
       <c r="J19" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K19" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1601,8 +1601,8 @@
       <c r="N19">
         <v>0.08</v>
       </c>
-      <c r="O19">
-        <v>5.0000000000000002E-5</v>
+      <c r="O19" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>16</v>
       </c>
       <c r="J20" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K20" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -1654,8 +1654,8 @@
       <c r="N20">
         <v>0.08</v>
       </c>
-      <c r="O20">
-        <v>5.0000000000000002E-5</v>
+      <c r="O20" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P20" s="2">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>16</v>
       </c>
       <c r="J21" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K21" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -1707,8 +1707,8 @@
       <c r="N21">
         <v>0.08</v>
       </c>
-      <c r="O21">
-        <v>5.0000000000000002E-5</v>
+      <c r="O21" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P21" s="2">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>16</v>
       </c>
       <c r="J22" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K22" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -1760,8 +1760,8 @@
       <c r="N22">
         <v>0.08</v>
       </c>
-      <c r="O22">
-        <v>5.0000000000000002E-5</v>
+      <c r="O22" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -1799,10 +1799,10 @@
         <v>16</v>
       </c>
       <c r="J23" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K23" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -1813,8 +1813,8 @@
       <c r="N23">
         <v>0.08</v>
       </c>
-      <c r="O23">
-        <v>5.0000000000000002E-5</v>
+      <c r="O23" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P23" s="2">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>16</v>
       </c>
       <c r="J24" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K24" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -1866,8 +1866,8 @@
       <c r="N24">
         <v>0.08</v>
       </c>
-      <c r="O24">
-        <v>5.0000000000000002E-5</v>
+      <c r="O24" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P24" s="2">
         <v>0</v>
@@ -1905,10 +1905,10 @@
         <v>16</v>
       </c>
       <c r="J25" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K25" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -1919,8 +1919,8 @@
       <c r="N25">
         <v>0.08</v>
       </c>
-      <c r="O25">
-        <v>5.0000000000000002E-5</v>
+      <c r="O25" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>16</v>
       </c>
       <c r="J26" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K26" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -1972,8 +1972,8 @@
       <c r="N26">
         <v>0.08</v>
       </c>
-      <c r="O26">
-        <v>5.0000000000000002E-5</v>
+      <c r="O26" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>16</v>
       </c>
       <c r="J27" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K27" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -2025,8 +2025,8 @@
       <c r="N27">
         <v>0.08</v>
       </c>
-      <c r="O27">
-        <v>5.0000000000000002E-5</v>
+      <c r="O27" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>16</v>
       </c>
       <c r="J28" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K28" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -2078,8 +2078,8 @@
       <c r="N28">
         <v>0.08</v>
       </c>
-      <c r="O28">
-        <v>5.0000000000000002E-5</v>
+      <c r="O28" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
@@ -2117,10 +2117,10 @@
         <v>16</v>
       </c>
       <c r="J29" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K29" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -2131,8 +2131,8 @@
       <c r="N29">
         <v>0.08</v>
       </c>
-      <c r="O29">
-        <v>5.0000000000000002E-5</v>
+      <c r="O29" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>16</v>
       </c>
       <c r="J30" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K30" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -2184,8 +2184,8 @@
       <c r="N30">
         <v>0.08</v>
       </c>
-      <c r="O30">
-        <v>5.0000000000000002E-5</v>
+      <c r="O30" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>16</v>
       </c>
       <c r="J31" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K31" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -2237,8 +2237,8 @@
       <c r="N31">
         <v>0.08</v>
       </c>
-      <c r="O31">
-        <v>5.0000000000000002E-5</v>
+      <c r="O31" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>16</v>
       </c>
       <c r="J32" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K32" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -2290,8 +2290,8 @@
       <c r="N32">
         <v>0.08</v>
       </c>
-      <c r="O32">
-        <v>5.0000000000000002E-5</v>
+      <c r="O32" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>16</v>
       </c>
       <c r="J33" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K33" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -2343,8 +2343,8 @@
       <c r="N33">
         <v>0.08</v>
       </c>
-      <c r="O33">
-        <v>5.0000000000000002E-5</v>
+      <c r="O33" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -2382,10 +2382,10 @@
         <v>16</v>
       </c>
       <c r="J34" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K34" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -2396,8 +2396,8 @@
       <c r="N34">
         <v>0.08</v>
       </c>
-      <c r="O34">
-        <v>5.0000000000000002E-5</v>
+      <c r="O34" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P34" s="2">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>16</v>
       </c>
       <c r="J35" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K35" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -2449,8 +2449,8 @@
       <c r="N35">
         <v>0.08</v>
       </c>
-      <c r="O35">
-        <v>5.0000000000000002E-5</v>
+      <c r="O35" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P35" s="2">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>16</v>
       </c>
       <c r="J36" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K36" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -2502,8 +2502,8 @@
       <c r="N36">
         <v>0.08</v>
       </c>
-      <c r="O36">
-        <v>5.0000000000000002E-5</v>
+      <c r="O36" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P36" s="2">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>16</v>
       </c>
       <c r="J37" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K37" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -2555,8 +2555,8 @@
       <c r="N37">
         <v>0.08</v>
       </c>
-      <c r="O37">
-        <v>5.0000000000000002E-5</v>
+      <c r="O37" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P37" s="2">
         <v>0</v>
@@ -2594,10 +2594,10 @@
         <v>16</v>
       </c>
       <c r="J38" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K38" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -2608,8 +2608,8 @@
       <c r="N38">
         <v>0.08</v>
       </c>
-      <c r="O38">
-        <v>5.0000000000000002E-5</v>
+      <c r="O38" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P38" s="2">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         <v>16</v>
       </c>
       <c r="J39" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K39" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -2661,8 +2661,8 @@
       <c r="N39">
         <v>0.08</v>
       </c>
-      <c r="O39">
-        <v>5.0000000000000002E-5</v>
+      <c r="O39" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
@@ -2700,10 +2700,10 @@
         <v>16</v>
       </c>
       <c r="J40" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K40" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -2714,8 +2714,8 @@
       <c r="N40">
         <v>0.08</v>
       </c>
-      <c r="O40">
-        <v>5.0000000000000002E-5</v>
+      <c r="O40" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P40" s="2">
         <v>0</v>
@@ -2753,10 +2753,10 @@
         <v>16</v>
       </c>
       <c r="J41" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K41" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -2767,8 +2767,8 @@
       <c r="N41">
         <v>0.08</v>
       </c>
-      <c r="O41">
-        <v>5.0000000000000002E-5</v>
+      <c r="O41" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P41" s="2">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>16</v>
       </c>
       <c r="J42" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K42" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -2820,8 +2820,8 @@
       <c r="N42">
         <v>0.08</v>
       </c>
-      <c r="O42">
-        <v>5.0000000000000002E-5</v>
+      <c r="O42" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P42" s="2">
         <v>0</v>
@@ -2859,10 +2859,10 @@
         <v>16</v>
       </c>
       <c r="J43" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K43" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -2873,8 +2873,8 @@
       <c r="N43">
         <v>0.08</v>
       </c>
-      <c r="O43">
-        <v>5.0000000000000002E-5</v>
+      <c r="O43" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P43" s="2">
         <v>0</v>
@@ -2912,10 +2912,10 @@
         <v>16</v>
       </c>
       <c r="J44" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K44" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
@@ -2926,8 +2926,8 @@
       <c r="N44">
         <v>0.08</v>
       </c>
-      <c r="O44">
-        <v>5.0000000000000002E-5</v>
+      <c r="O44" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P44" s="2">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>16</v>
       </c>
       <c r="J45" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K45" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
@@ -2979,8 +2979,8 @@
       <c r="N45">
         <v>0.08</v>
       </c>
-      <c r="O45">
-        <v>5.0000000000000002E-5</v>
+      <c r="O45" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P45" s="2">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>16</v>
       </c>
       <c r="J46" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K46" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L46" s="2">
         <v>0</v>
@@ -3032,8 +3032,8 @@
       <c r="N46">
         <v>0.08</v>
       </c>
-      <c r="O46">
-        <v>5.0000000000000002E-5</v>
+      <c r="O46" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>16</v>
       </c>
       <c r="J47" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K47" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
@@ -3085,8 +3085,8 @@
       <c r="N47">
         <v>0.08</v>
       </c>
-      <c r="O47">
-        <v>5.0000000000000002E-5</v>
+      <c r="O47" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
@@ -3124,10 +3124,10 @@
         <v>16</v>
       </c>
       <c r="J48" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K48" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L48" s="2">
         <v>0</v>
@@ -3138,8 +3138,8 @@
       <c r="N48">
         <v>0.08</v>
       </c>
-      <c r="O48">
-        <v>5.0000000000000002E-5</v>
+      <c r="O48" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         <v>16</v>
       </c>
       <c r="J49" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K49" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
@@ -3191,8 +3191,8 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49">
-        <v>5.0000000000000002E-5</v>
+      <c r="O49" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P49" s="2">
         <v>0</v>
@@ -3230,10 +3230,10 @@
         <v>16</v>
       </c>
       <c r="J50" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K50" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
@@ -3244,8 +3244,8 @@
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50">
-        <v>5.0000000000000002E-5</v>
+      <c r="O50" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P50" s="2">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>16</v>
       </c>
       <c r="J51" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K51" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
@@ -3297,8 +3297,8 @@
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51">
-        <v>5.0000000000000002E-5</v>
+      <c r="O51" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P51" s="2">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>16</v>
       </c>
       <c r="J52" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K52" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L52" s="2">
         <v>0</v>
@@ -3350,8 +3350,8 @@
       <c r="N52">
         <v>0.08</v>
       </c>
-      <c r="O52">
-        <v>5.0000000000000002E-5</v>
+      <c r="O52" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P52" s="2">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>16</v>
       </c>
       <c r="J53" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K53" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
@@ -3403,8 +3403,8 @@
       <c r="N53">
         <v>0.08</v>
       </c>
-      <c r="O53">
-        <v>5.0000000000000002E-5</v>
+      <c r="O53" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>16</v>
       </c>
       <c r="J54" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K54" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
@@ -3456,8 +3456,8 @@
       <c r="N54">
         <v>0.08</v>
       </c>
-      <c r="O54">
-        <v>5.0000000000000002E-5</v>
+      <c r="O54" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P54" s="2">
         <v>0</v>
@@ -3495,10 +3495,10 @@
         <v>16</v>
       </c>
       <c r="J55" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K55" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L55" s="2">
         <v>0</v>
@@ -3509,8 +3509,8 @@
       <c r="N55">
         <v>0.08</v>
       </c>
-      <c r="O55">
-        <v>5.0000000000000002E-5</v>
+      <c r="O55" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P55" s="2">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>16</v>
       </c>
       <c r="J56" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K56" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
@@ -3562,8 +3562,8 @@
       <c r="N56">
         <v>0.08</v>
       </c>
-      <c r="O56">
-        <v>5.0000000000000002E-5</v>
+      <c r="O56" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P56" s="2">
         <v>0</v>
@@ -3601,10 +3601,10 @@
         <v>16</v>
       </c>
       <c r="J57" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K57" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L57" s="2">
         <v>0</v>
@@ -3615,8 +3615,8 @@
       <c r="N57">
         <v>0.08</v>
       </c>
-      <c r="O57">
-        <v>5.0000000000000002E-5</v>
+      <c r="O57" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P57" s="2">
         <v>0</v>
@@ -3654,10 +3654,10 @@
         <v>16</v>
       </c>
       <c r="J58" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="K58" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="L58" s="2">
         <v>0</v>
@@ -3668,8 +3668,8 @@
       <c r="N58">
         <v>0.08</v>
       </c>
-      <c r="O58">
-        <v>5.0000000000000002E-5</v>
+      <c r="O58" s="2">
+        <v>2E-3</v>
       </c>
       <c r="P58" s="2">
         <v>0</v>
